--- a/TGSProject/Assets/Resources/MessageData/Excels/Prologue.xlsx
+++ b/TGSProject/Assets/Resources/MessageData/Excels/Prologue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\圖片\PAINT\盲目少女\シナリオ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363635C8-B336-4408-BA70-2260A59E7CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F10DE7-A6E2-4C3F-930F-7D5D03E24A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1896" yWindow="144" windowWidth="21144" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Message" sheetId="1" r:id="rId1"/>
@@ -123,26 +123,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ご無沙汰しております、陛下。
-この度は陛下にお願いがあって参りました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ルイス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ふむ。ルイス家の頼みならば何なりと。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ありがとうございます。実は、
-宮殿の深部に生息している薬草を分けてほしいのです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>また、「あの病」が出回っているそうです。陛下。
-こちらが、患者の妹のリリカでございます。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -168,11 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ええ。薬の調合は俺ができます。
-15年前も、両脚と引き換えに一命を取り留めたものですから。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>……父と母は、間に合いませんでしたけれども。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -206,11 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今でも宮殿はやつらのもの。
-それゆえ、我の許しなど必要ない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>そんな……
 じゃあ、もう宮殿には入れないのですか…！</t>
     <phoneticPr fontId="1"/>
@@ -230,11 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>微力ながらも、そなたらの助けとなろう。
-必要な時は口笛を吹くが良い。我が同胞が必ず駆け付けよう。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ご助力、感謝いたします。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -252,6 +222,36 @@
   <si>
     <t>もし会うことがあればどうか、
 その魂を安らかなところへ導いてくれまいか……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご無沙汰しております、陛下。
+この度はお願いがあって参りました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありがとうございます。
+宮殿の深部に生息している薬草を分けてほしいのです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実は、また「あの病」が出回っているそうです。陛下。
+こちらが、患者の妹のリリカでございます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬の調合は俺ができます。
+15年前も、両脚と引き換えに一命を取り留めましたから。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今では宮殿はやつらのもの。
+それゆえ、我の許しなど必要ない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微力ながら、そなたらの助けとなろう。
+必要な時は口笛を吹くが良い。我が同胞が必ず駆け付けよう。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -918,16 +918,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
@@ -952,16 +952,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
@@ -969,16 +969,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -986,16 +986,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
         <v>5</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -1003,16 +1003,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1023,13 +1023,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1040,13 +1040,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
@@ -1054,16 +1054,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
         <v>6</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D12" s="7">
         <v>3</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
@@ -1091,13 +1091,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
@@ -1105,16 +1105,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1125,13 +1125,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30">
@@ -1142,13 +1142,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
@@ -1156,16 +1156,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4">
         <v>6</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30">
@@ -1176,13 +1176,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
@@ -1193,13 +1193,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
@@ -1207,16 +1207,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7">
         <v>5</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
@@ -1224,16 +1224,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7">
         <v>6</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30">
@@ -1261,13 +1261,13 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30">
@@ -1278,13 +1278,13 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30">
@@ -1312,13 +1312,13 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
@@ -1329,13 +1329,13 @@
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1403,9 +1403,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1573,19 +1576,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DDF3B9B-96E7-45C0-A54D-CB76AD420E8C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92F4045C-1F40-4742-B56D-B56D7D02B291}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1609,9 +1608,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92F4045C-1F40-4742-B56D-B56D7D02B291}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DDF3B9B-96E7-45C0-A54D-CB76AD420E8C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TGSProject/Assets/Resources/MessageData/Excels/Prologue.xlsx
+++ b/TGSProject/Assets/Resources/MessageData/Excels/Prologue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\圖片\PAINT\盲目少女\シナリオ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F10DE7-A6E2-4C3F-930F-7D5D03E24A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363635C8-B336-4408-BA70-2260A59E7CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1896" yWindow="144" windowWidth="21144" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Message" sheetId="1" r:id="rId1"/>
@@ -123,11 +123,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ご無沙汰しております、陛下。
+この度は陛下にお願いがあって参りました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ルイス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ふむ。ルイス家の頼みならば何なりと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありがとうございます。実は、
+宮殿の深部に生息している薬草を分けてほしいのです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、「あの病」が出回っているそうです。陛下。
+こちらが、患者の妹のリリカでございます。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -153,6 +168,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ええ。薬の調合は俺ができます。
+15年前も、両脚と引き換えに一命を取り留めたものですから。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>……父と母は、間に合いませんでしたけれども。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -186,6 +206,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>今でも宮殿はやつらのもの。
+それゆえ、我の許しなど必要ない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>そんな……
 じゃあ、もう宮殿には入れないのですか…！</t>
     <phoneticPr fontId="1"/>
@@ -205,6 +230,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>微力ながらも、そなたらの助けとなろう。
+必要な時は口笛を吹くが良い。我が同胞が必ず駆け付けよう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ご助力、感謝いたします。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -222,36 +252,6 @@
   <si>
     <t>もし会うことがあればどうか、
 その魂を安らかなところへ導いてくれまいか……</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ご無沙汰しております、陛下。
-この度はお願いがあって参りました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ありがとうございます。
-宮殿の深部に生息している薬草を分けてほしいのです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実は、また「あの病」が出回っているそうです。陛下。
-こちらが、患者の妹のリリカでございます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>薬の調合は俺ができます。
-15年前も、両脚と引き換えに一命を取り留めましたから。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今では宮殿はやつらのもの。
-それゆえ、我の許しなど必要ない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>微力ながら、そなたらの助けとなろう。
-必要な時は口笛を吹くが良い。我が同胞が必ず駆け付けよう。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -918,16 +918,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7">
         <v>2</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
@@ -952,16 +952,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
@@ -969,16 +969,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7">
         <v>3</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -986,16 +986,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
         <v>5</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
@@ -1003,16 +1003,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1023,13 +1023,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1040,13 +1040,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
@@ -1054,16 +1054,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
         <v>6</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7">
         <v>3</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
@@ -1091,13 +1091,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
@@ -1105,16 +1105,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1125,13 +1125,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30">
@@ -1142,13 +1142,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
@@ -1156,16 +1156,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4">
         <v>6</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30">
@@ -1176,13 +1176,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
@@ -1193,13 +1193,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
@@ -1207,16 +1207,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7">
         <v>5</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
@@ -1224,16 +1224,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
         <v>6</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30">
@@ -1261,13 +1261,13 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30">
@@ -1278,13 +1278,13 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30">
@@ -1312,13 +1312,13 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
@@ -1329,13 +1329,13 @@
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1403,12 +1403,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1576,15 +1573,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92F4045C-1F40-4742-B56D-B56D7D02B291}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DDF3B9B-96E7-45C0-A54D-CB76AD420E8C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1608,10 +1609,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DDF3B9B-96E7-45C0-A54D-CB76AD420E8C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92F4045C-1F40-4742-B56D-B56D7D02B291}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>